--- a/Planilhas/copia.xlsx
+++ b/Planilhas/copia.xlsx
@@ -24674,9 +24674,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AF633"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A334" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D353" sqref="D353"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24684,20 +24684,20 @@
     <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="41.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="40.5703125" style="31" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.85546875" style="31" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="55.28515625" style="31" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" style="31" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" style="31" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="28.28515625" style="31" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="29.42578125" style="31" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.85546875" bestFit="1" customWidth="1"/>
@@ -24706,7 +24706,7 @@
     <col min="24" max="24" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="17.7109375" style="36" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="14.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19.7109375" style="36" customWidth="1"/>
+    <col min="27" max="27" width="16.140625" style="36" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="14.5703125" style="36" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="16.5703125" style="36" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="15.5703125" bestFit="1" customWidth="1"/>
@@ -24812,7 +24812,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>37</v>
       </c>
@@ -24904,7 +24904,7 @@
         <v>43389</v>
       </c>
     </row>
-    <row r="3" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>37</v>
       </c>
@@ -24996,7 +24996,7 @@
         <v>43384</v>
       </c>
     </row>
-    <row r="4" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>37</v>
       </c>
@@ -25090,7 +25090,7 @@
         <v>43425</v>
       </c>
     </row>
-    <row r="5" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>37</v>
       </c>
@@ -25184,7 +25184,7 @@
         <v>43392</v>
       </c>
     </row>
-    <row r="6" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>37</v>
       </c>
@@ -25278,7 +25278,7 @@
         <v>43571</v>
       </c>
     </row>
-    <row r="7" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>37</v>
       </c>
@@ -25370,7 +25370,7 @@
         <v>43482</v>
       </c>
     </row>
-    <row r="8" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>37</v>
       </c>
@@ -25464,7 +25464,7 @@
         <v>43475</v>
       </c>
     </row>
-    <row r="9" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>37</v>
       </c>
@@ -25558,7 +25558,7 @@
         <v>43397</v>
       </c>
     </row>
-    <row r="10" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>37</v>
       </c>
@@ -25652,7 +25652,7 @@
         <v>43433</v>
       </c>
     </row>
-    <row r="11" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>37</v>
       </c>
@@ -25744,7 +25744,7 @@
         <v>43370</v>
       </c>
     </row>
-    <row r="12" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>37</v>
       </c>
@@ -25838,7 +25838,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="13" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>37</v>
       </c>
@@ -25930,7 +25930,7 @@
         <v>43334</v>
       </c>
     </row>
-    <row r="14" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>37</v>
       </c>
@@ -26022,7 +26022,7 @@
         <v>43368</v>
       </c>
     </row>
-    <row r="15" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>37</v>
       </c>
@@ -26114,7 +26114,7 @@
         <v>43391</v>
       </c>
     </row>
-    <row r="16" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>37</v>
       </c>
@@ -26208,7 +26208,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="17" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>37</v>
       </c>
@@ -26300,7 +26300,7 @@
         <v>43377</v>
       </c>
     </row>
-    <row r="18" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>37</v>
       </c>
@@ -26392,7 +26392,7 @@
         <v>43388</v>
       </c>
     </row>
-    <row r="19" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
         <v>37</v>
       </c>
@@ -26486,7 +26486,7 @@
         <v>43602</v>
       </c>
     </row>
-    <row r="20" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>37</v>
       </c>
@@ -26580,7 +26580,7 @@
         <v>43487</v>
       </c>
     </row>
-    <row r="21" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>37</v>
       </c>
@@ -26672,7 +26672,7 @@
         <v>43364</v>
       </c>
     </row>
-    <row r="22" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
         <v>37</v>
       </c>
@@ -26764,7 +26764,7 @@
         <v>43382</v>
       </c>
     </row>
-    <row r="23" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
         <v>37</v>
       </c>
@@ -26858,7 +26858,7 @@
         <v>43447</v>
       </c>
     </row>
-    <row r="24" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
         <v>37</v>
       </c>
@@ -26950,7 +26950,7 @@
         <v>43364</v>
       </c>
     </row>
-    <row r="25" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
         <v>37</v>
       </c>
@@ -27044,7 +27044,7 @@
         <v>43525</v>
       </c>
     </row>
-    <row r="26" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
         <v>37</v>
       </c>
@@ -27138,7 +27138,7 @@
         <v>43606</v>
       </c>
     </row>
-    <row r="27" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
         <v>37</v>
       </c>
@@ -27230,7 +27230,7 @@
         <v>43390</v>
       </c>
     </row>
-    <row r="28" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
         <v>37</v>
       </c>
@@ -27322,7 +27322,7 @@
         <v>43441</v>
       </c>
     </row>
-    <row r="29" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" s="21" t="s">
         <v>37</v>
       </c>
@@ -27412,7 +27412,7 @@
       <c r="AE29" s="19"/>
       <c r="AF29" s="20"/>
     </row>
-    <row r="30" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" s="21" t="s">
         <v>37</v>
       </c>
@@ -27504,7 +27504,7 @@
         <v>43396</v>
       </c>
     </row>
-    <row r="31" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" s="21" t="s">
         <v>37</v>
       </c>
@@ -27596,7 +27596,7 @@
         <v>43369</v>
       </c>
     </row>
-    <row r="32" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" s="21" t="s">
         <v>37</v>
       </c>
@@ -27688,7 +27688,7 @@
         <v>43447</v>
       </c>
     </row>
-    <row r="33" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" s="21" t="s">
         <v>37</v>
       </c>
@@ -27780,7 +27780,7 @@
         <v>43347</v>
       </c>
     </row>
-    <row r="34" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" s="21" t="s">
         <v>37</v>
       </c>
@@ -27872,7 +27872,7 @@
         <v>43431</v>
       </c>
     </row>
-    <row r="35" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" s="21" t="s">
         <v>37</v>
       </c>
@@ -27966,7 +27966,7 @@
         <v>43433</v>
       </c>
     </row>
-    <row r="36" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" s="21" t="s">
         <v>37</v>
       </c>
@@ -28058,7 +28058,7 @@
         <v>43344</v>
       </c>
     </row>
-    <row r="37" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" s="21" t="s">
         <v>37</v>
       </c>
@@ -28152,7 +28152,7 @@
         <v>43454</v>
       </c>
     </row>
-    <row r="38" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="s">
         <v>37</v>
       </c>
@@ -28244,7 +28244,7 @@
         <v>43390</v>
       </c>
     </row>
-    <row r="39" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39" s="21" t="s">
         <v>37</v>
       </c>
@@ -28338,7 +28338,7 @@
         <v>43452</v>
       </c>
     </row>
-    <row r="40" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40" s="21" t="s">
         <v>37</v>
       </c>
@@ -28430,7 +28430,7 @@
       </c>
       <c r="AF40" s="20"/>
     </row>
-    <row r="41" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41" s="21" t="s">
         <v>37</v>
       </c>
@@ -28524,7 +28524,7 @@
         <v>43524</v>
       </c>
     </row>
-    <row r="42" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42" s="21" t="s">
         <v>37</v>
       </c>
@@ -28614,7 +28614,7 @@
       </c>
       <c r="AF42" s="20"/>
     </row>
-    <row r="43" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43" s="21" t="s">
         <v>37</v>
       </c>
@@ -28706,7 +28706,7 @@
         <v>43389</v>
       </c>
     </row>
-    <row r="44" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A44" s="21" t="s">
         <v>37</v>
       </c>
@@ -28798,7 +28798,7 @@
         <v>43362</v>
       </c>
     </row>
-    <row r="45" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45" s="21" t="s">
         <v>37</v>
       </c>
@@ -28890,7 +28890,7 @@
         <v>43396</v>
       </c>
     </row>
-    <row r="46" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46" s="21" t="s">
         <v>37</v>
       </c>
@@ -28982,7 +28982,7 @@
         <v>43392</v>
       </c>
     </row>
-    <row r="47" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47" s="21" t="s">
         <v>37</v>
       </c>
@@ -29074,7 +29074,7 @@
         <v>43342</v>
       </c>
     </row>
-    <row r="48" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A48" s="21" t="s">
         <v>37</v>
       </c>
@@ -29168,7 +29168,7 @@
         <v>43494</v>
       </c>
     </row>
-    <row r="49" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A49" s="21" t="s">
         <v>37</v>
       </c>
@@ -29262,7 +29262,7 @@
         <v>43475</v>
       </c>
     </row>
-    <row r="50" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A50" s="21" t="s">
         <v>37</v>
       </c>
@@ -29354,7 +29354,7 @@
         <v>43370</v>
       </c>
     </row>
-    <row r="51" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A51" s="21" t="s">
         <v>37</v>
       </c>
@@ -29446,7 +29446,7 @@
         <v>43403</v>
       </c>
     </row>
-    <row r="52" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="s">
         <v>37</v>
       </c>
@@ -29538,7 +29538,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="53" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A53" s="21" t="s">
         <v>37</v>
       </c>
@@ -29630,7 +29630,7 @@
         <v>43377</v>
       </c>
     </row>
-    <row r="54" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A54" s="21" t="s">
         <v>37</v>
       </c>
@@ -29724,7 +29724,7 @@
         <v>43545</v>
       </c>
     </row>
-    <row r="55" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A55" s="21" t="s">
         <v>37</v>
       </c>
@@ -29816,7 +29816,7 @@
         <v>43438</v>
       </c>
     </row>
-    <row r="56" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A56" s="21" t="s">
         <v>37</v>
       </c>
@@ -29908,7 +29908,7 @@
         <v>43390</v>
       </c>
     </row>
-    <row r="57" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A57" s="21" t="s">
         <v>37</v>
       </c>
@@ -30000,7 +30000,7 @@
         <v>43396</v>
       </c>
     </row>
-    <row r="58" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A58" s="21" t="s">
         <v>37</v>
       </c>
@@ -30094,7 +30094,7 @@
         <v>43455</v>
       </c>
     </row>
-    <row r="59" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A59" s="21" t="s">
         <v>37</v>
       </c>
@@ -30188,7 +30188,7 @@
         <v>43504</v>
       </c>
     </row>
-    <row r="60" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A60" s="21" t="s">
         <v>37</v>
       </c>
@@ -30280,7 +30280,7 @@
         <v>43391</v>
       </c>
     </row>
-    <row r="61" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61" s="21" t="s">
         <v>37</v>
       </c>
@@ -30372,7 +30372,7 @@
         <v>43473</v>
       </c>
     </row>
-    <row r="62" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A62" s="21" t="s">
         <v>37</v>
       </c>
@@ -30464,7 +30464,7 @@
         <v>43391</v>
       </c>
     </row>
-    <row r="63" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A63" s="21" t="s">
         <v>37</v>
       </c>
@@ -30556,7 +30556,7 @@
         <v>43399</v>
       </c>
     </row>
-    <row r="64" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A64" s="21" t="s">
         <v>37</v>
       </c>
@@ -30648,7 +30648,7 @@
         <v>43397</v>
       </c>
     </row>
-    <row r="65" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A65" s="21" t="s">
         <v>37</v>
       </c>
@@ -30742,7 +30742,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="66" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A66" s="21" t="s">
         <v>37</v>
       </c>
@@ -30834,7 +30834,7 @@
         <v>43389</v>
       </c>
     </row>
-    <row r="67" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A67" s="21" t="s">
         <v>37</v>
       </c>
@@ -30926,7 +30926,7 @@
         <v>43378</v>
       </c>
     </row>
-    <row r="68" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A68" s="21" t="s">
         <v>37</v>
       </c>
@@ -31018,7 +31018,7 @@
         <v>43396</v>
       </c>
     </row>
-    <row r="69" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A69" s="21" t="s">
         <v>37</v>
       </c>
@@ -31110,7 +31110,7 @@
         <v>43384</v>
       </c>
     </row>
-    <row r="70" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A70" s="21" t="s">
         <v>37</v>
       </c>
@@ -31202,7 +31202,7 @@
         <v>43369</v>
       </c>
     </row>
-    <row r="71" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A71" s="21" t="s">
         <v>37</v>
       </c>
@@ -31296,7 +31296,7 @@
         <v>43376</v>
       </c>
     </row>
-    <row r="72" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A72" s="21" t="s">
         <v>37</v>
       </c>
@@ -31390,7 +31390,7 @@
         <v>43515</v>
       </c>
     </row>
-    <row r="73" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A73" s="21" t="s">
         <v>37</v>
       </c>
@@ -31484,7 +31484,7 @@
         <v>43511</v>
       </c>
     </row>
-    <row r="74" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A74" s="21" t="s">
         <v>37</v>
       </c>
@@ -31578,7 +31578,7 @@
         <v>43475</v>
       </c>
     </row>
-    <row r="75" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A75" s="21" t="s">
         <v>37</v>
       </c>
@@ -31670,7 +31670,7 @@
         <v>43390</v>
       </c>
     </row>
-    <row r="76" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A76" s="21" t="s">
         <v>37</v>
       </c>
@@ -31764,7 +31764,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="77" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A77" s="21" t="s">
         <v>37</v>
       </c>
@@ -31858,7 +31858,7 @@
         <v>43515</v>
       </c>
     </row>
-    <row r="78" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A78" s="21" t="s">
         <v>37</v>
       </c>
@@ -31950,7 +31950,7 @@
         <v>43375</v>
       </c>
     </row>
-    <row r="79" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A79" s="21" t="s">
         <v>37</v>
       </c>
@@ -32042,7 +32042,7 @@
         <v>43389</v>
       </c>
     </row>
-    <row r="80" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A80" s="21" t="s">
         <v>37</v>
       </c>
@@ -32136,7 +32136,7 @@
         <v>43481</v>
       </c>
     </row>
-    <row r="81" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A81" s="21" t="s">
         <v>37</v>
       </c>
@@ -32228,7 +32228,7 @@
         <v>43397</v>
       </c>
     </row>
-    <row r="82" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A82" s="21" t="s">
         <v>37</v>
       </c>
@@ -32320,7 +32320,7 @@
         <v>43389</v>
       </c>
     </row>
-    <row r="83" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A83" s="21" t="s">
         <v>37</v>
       </c>
@@ -32412,7 +32412,7 @@
       </c>
       <c r="AF83" s="20"/>
     </row>
-    <row r="84" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A84" s="21" t="s">
         <v>37</v>
       </c>
@@ -32504,7 +32504,7 @@
         <v>43402</v>
       </c>
     </row>
-    <row r="85" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A85" s="21" t="s">
         <v>37</v>
       </c>
@@ -32598,7 +32598,7 @@
         <v>43392</v>
       </c>
     </row>
-    <row r="86" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A86" s="21" t="s">
         <v>37</v>
       </c>
@@ -32692,7 +32692,7 @@
         <v>43558</v>
       </c>
     </row>
-    <row r="87" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A87" s="21" t="s">
         <v>37</v>
       </c>
@@ -32786,7 +32786,7 @@
         <v>43608</v>
       </c>
     </row>
-    <row r="88" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A88" s="21" t="s">
         <v>37</v>
       </c>
@@ -32880,7 +32880,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="89" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A89" s="21" t="s">
         <v>37</v>
       </c>
@@ -32972,7 +32972,7 @@
         <v>43388</v>
       </c>
     </row>
-    <row r="90" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A90" s="21" t="s">
         <v>37</v>
       </c>
@@ -33066,7 +33066,7 @@
         <v>43605</v>
       </c>
     </row>
-    <row r="91" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A91" s="21" t="s">
         <v>37</v>
       </c>
@@ -33158,7 +33158,7 @@
         <v>43398</v>
       </c>
     </row>
-    <row r="92" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A92" s="21" t="s">
         <v>37</v>
       </c>
@@ -33250,7 +33250,7 @@
         <v>43399</v>
       </c>
     </row>
-    <row r="93" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A93" s="21" t="s">
         <v>37</v>
       </c>
@@ -33342,7 +33342,7 @@
       </c>
       <c r="AF93" s="20"/>
     </row>
-    <row r="94" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A94" s="21" t="s">
         <v>37</v>
       </c>
@@ -33436,7 +33436,7 @@
         <v>43517</v>
       </c>
     </row>
-    <row r="95" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A95" s="21" t="s">
         <v>37</v>
       </c>
@@ -33528,7 +33528,7 @@
         <v>43370</v>
       </c>
     </row>
-    <row r="96" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A96" s="21" t="s">
         <v>37</v>
       </c>
@@ -33622,7 +33622,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="97" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A97" s="21" t="s">
         <v>37</v>
       </c>
@@ -33714,7 +33714,7 @@
         <v>43388</v>
       </c>
     </row>
-    <row r="98" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A98" s="21" t="s">
         <v>37</v>
       </c>
@@ -33808,7 +33808,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="99" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A99" s="21" t="s">
         <v>37</v>
       </c>
@@ -33900,7 +33900,7 @@
         <v>43392</v>
       </c>
     </row>
-    <row r="100" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A100" s="21" t="s">
         <v>37</v>
       </c>
@@ -33994,7 +33994,7 @@
         <v>43489</v>
       </c>
     </row>
-    <row r="101" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A101" s="21" t="s">
         <v>37</v>
       </c>
@@ -34086,7 +34086,7 @@
         <v>43377</v>
       </c>
     </row>
-    <row r="102" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A102" s="21" t="s">
         <v>37</v>
       </c>
@@ -34178,7 +34178,7 @@
         <v>43384</v>
       </c>
     </row>
-    <row r="103" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A103" s="21" t="s">
         <v>37</v>
       </c>
@@ -34270,7 +34270,7 @@
         <v>43389</v>
       </c>
     </row>
-    <row r="104" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A104" s="21" t="s">
         <v>37</v>
       </c>
@@ -34362,7 +34362,7 @@
         <v>43371</v>
       </c>
     </row>
-    <row r="105" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A105" s="21" t="s">
         <v>37</v>
       </c>
@@ -34454,7 +34454,7 @@
         <v>43397</v>
       </c>
     </row>
-    <row r="106" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A106" s="21" t="s">
         <v>37</v>
       </c>
@@ -34546,7 +34546,7 @@
         <v>43399</v>
       </c>
     </row>
-    <row r="107" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A107" s="21" t="s">
         <v>37</v>
       </c>
@@ -34638,7 +34638,7 @@
         <v>43397</v>
       </c>
     </row>
-    <row r="108" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A108" s="21" t="s">
         <v>37</v>
       </c>
@@ -34732,7 +34732,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="109" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A109" s="21" t="s">
         <v>37</v>
       </c>
@@ -34824,7 +34824,7 @@
         <v>43391</v>
       </c>
     </row>
-    <row r="110" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A110" s="21" t="s">
         <v>37</v>
       </c>
@@ -34916,7 +34916,7 @@
         <v>43388</v>
       </c>
     </row>
-    <row r="111" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A111" s="21" t="s">
         <v>37</v>
       </c>
@@ -35008,7 +35008,7 @@
         <v>43403</v>
       </c>
     </row>
-    <row r="112" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A112" s="21" t="s">
         <v>37</v>
       </c>
@@ -35102,7 +35102,7 @@
         <v>43573</v>
       </c>
     </row>
-    <row r="113" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A113" s="21" t="s">
         <v>37</v>
       </c>
@@ -35194,7 +35194,7 @@
         <v>43388</v>
       </c>
     </row>
-    <row r="114" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A114" s="21" t="s">
         <v>37</v>
       </c>
@@ -35286,7 +35286,7 @@
         <v>43390</v>
       </c>
     </row>
-    <row r="115" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A115" s="21" t="s">
         <v>37</v>
       </c>
@@ -35380,7 +35380,7 @@
         <v>43399</v>
       </c>
     </row>
-    <row r="116" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A116" s="21" t="s">
         <v>37</v>
       </c>
@@ -35472,7 +35472,7 @@
         <v>43371</v>
       </c>
     </row>
-    <row r="117" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A117" s="21" t="s">
         <v>37</v>
       </c>
@@ -35564,7 +35564,7 @@
         <v>43391</v>
       </c>
     </row>
-    <row r="118" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A118" s="21" t="s">
         <v>37</v>
       </c>
@@ -35658,7 +35658,7 @@
         <v>43392</v>
       </c>
     </row>
-    <row r="119" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A119" s="21" t="s">
         <v>37</v>
       </c>
@@ -35750,7 +35750,7 @@
         <v>43368</v>
       </c>
     </row>
-    <row r="120" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A120" s="21" t="s">
         <v>37</v>
       </c>
@@ -35842,7 +35842,7 @@
         <v>43483</v>
       </c>
     </row>
-    <row r="121" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A121" s="21" t="s">
         <v>37</v>
       </c>
@@ -35934,7 +35934,7 @@
         <v>43369</v>
       </c>
     </row>
-    <row r="122" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A122" s="21" t="s">
         <v>37</v>
       </c>
@@ -36026,7 +36026,7 @@
         <v>43396</v>
       </c>
     </row>
-    <row r="123" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A123" s="21" t="s">
         <v>37</v>
       </c>
@@ -36120,7 +36120,7 @@
         <v>43390</v>
       </c>
     </row>
-    <row r="124" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A124" s="21" t="s">
         <v>37</v>
       </c>
@@ -36212,7 +36212,7 @@
         <v>43389</v>
       </c>
     </row>
-    <row r="125" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A125" s="21" t="s">
         <v>37</v>
       </c>
@@ -36304,7 +36304,7 @@
         <v>43384</v>
       </c>
     </row>
-    <row r="126" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A126" s="21" t="s">
         <v>37</v>
       </c>
@@ -36396,7 +36396,7 @@
         <v>43390</v>
       </c>
     </row>
-    <row r="127" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A127" s="21" t="s">
         <v>37</v>
       </c>
@@ -36490,7 +36490,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="128" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A128" s="21" t="s">
         <v>37</v>
       </c>
@@ -36584,7 +36584,7 @@
         <v>43481</v>
       </c>
     </row>
-    <row r="129" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A129" s="21" t="s">
         <v>37</v>
       </c>
@@ -36676,7 +36676,7 @@
         <v>43392</v>
       </c>
     </row>
-    <row r="130" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A130" s="21" t="s">
         <v>37</v>
       </c>
@@ -36768,7 +36768,7 @@
         <v>43392</v>
       </c>
     </row>
-    <row r="131" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A131" s="21" t="s">
         <v>37</v>
       </c>
@@ -36860,7 +36860,7 @@
         <v>43432</v>
       </c>
     </row>
-    <row r="132" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A132" s="21" t="s">
         <v>37</v>
       </c>
@@ -36952,7 +36952,7 @@
         <v>43377</v>
       </c>
     </row>
-    <row r="133" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A133" s="21" t="s">
         <v>37</v>
       </c>
@@ -37046,7 +37046,7 @@
         <v>43487</v>
       </c>
     </row>
-    <row r="134" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A134" s="21" t="s">
         <v>37</v>
       </c>
@@ -37140,7 +37140,7 @@
         <v>43402</v>
       </c>
     </row>
-    <row r="135" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A135" s="21" t="s">
         <v>37</v>
       </c>
@@ -37232,7 +37232,7 @@
         <v>43396</v>
       </c>
     </row>
-    <row r="136" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A136" s="21" t="s">
         <v>37</v>
       </c>
@@ -37322,7 +37322,7 @@
         <v>43384</v>
       </c>
     </row>
-    <row r="137" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A137" s="21" t="s">
         <v>37</v>
       </c>
@@ -37414,7 +37414,7 @@
         <v>43391</v>
       </c>
     </row>
-    <row r="138" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A138" s="21" t="s">
         <v>37</v>
       </c>
@@ -37506,7 +37506,7 @@
         <v>43377</v>
       </c>
     </row>
-    <row r="139" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A139" s="21" t="s">
         <v>37</v>
       </c>
@@ -37598,7 +37598,7 @@
         <v>43378</v>
       </c>
     </row>
-    <row r="140" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A140" s="21" t="s">
         <v>37</v>
       </c>
@@ -37690,7 +37690,7 @@
         <v>43391</v>
       </c>
     </row>
-    <row r="141" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A141" s="21" t="s">
         <v>37</v>
       </c>
@@ -37784,7 +37784,7 @@
         <v>43397</v>
       </c>
     </row>
-    <row r="142" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A142" s="21" t="s">
         <v>37</v>
       </c>
@@ -37876,7 +37876,7 @@
         <v>43368</v>
       </c>
     </row>
-    <row r="143" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A143" s="21" t="s">
         <v>37</v>
       </c>
@@ -37968,7 +37968,7 @@
         <v>43375</v>
       </c>
     </row>
-    <row r="144" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A144" s="21" t="s">
         <v>37</v>
       </c>
@@ -38062,7 +38062,7 @@
         <v>43390</v>
       </c>
     </row>
-    <row r="145" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A145" s="21" t="s">
         <v>37</v>
       </c>
@@ -38154,7 +38154,7 @@
         <v>43370</v>
       </c>
     </row>
-    <row r="146" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A146" s="21" t="s">
         <v>37</v>
       </c>
@@ -38246,7 +38246,7 @@
         <v>43376</v>
       </c>
     </row>
-    <row r="147" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A147" s="21" t="s">
         <v>37</v>
       </c>
@@ -38340,7 +38340,7 @@
         <v>43376</v>
       </c>
     </row>
-    <row r="148" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A148" s="21" t="s">
         <v>37</v>
       </c>
@@ -38432,7 +38432,7 @@
         <v>43389</v>
       </c>
     </row>
-    <row r="149" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A149" s="21" t="s">
         <v>37</v>
       </c>
@@ -38524,7 +38524,7 @@
         <v>43381</v>
       </c>
     </row>
-    <row r="150" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A150" s="21" t="s">
         <v>37</v>
       </c>
@@ -38616,7 +38616,7 @@
         <v>43378</v>
       </c>
     </row>
-    <row r="151" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A151" s="21" t="s">
         <v>37</v>
       </c>
@@ -38708,7 +38708,7 @@
         <v>43431</v>
       </c>
     </row>
-    <row r="152" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A152" s="21" t="s">
         <v>37</v>
       </c>
@@ -38798,7 +38798,7 @@
         <v>43398</v>
       </c>
     </row>
-    <row r="153" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A153" s="21" t="s">
         <v>37</v>
       </c>
@@ -38890,7 +38890,7 @@
         <v>43545</v>
       </c>
     </row>
-    <row r="154" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A154" s="21" t="s">
         <v>37</v>
       </c>
@@ -38982,7 +38982,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="155" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A155" s="21" t="s">
         <v>37</v>
       </c>
@@ -39074,7 +39074,7 @@
         <v>43489</v>
       </c>
     </row>
-    <row r="156" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A156" s="12" t="s">
         <v>37</v>
       </c>
@@ -39166,7 +39166,7 @@
         <v>43489</v>
       </c>
     </row>
-    <row r="157" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A157" s="12" t="s">
         <v>37</v>
       </c>
@@ -39256,7 +39256,7 @@
         <v>43634</v>
       </c>
     </row>
-    <row r="158" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A158" s="12" t="s">
         <v>37</v>
       </c>
@@ -39348,7 +39348,7 @@
         <v>43676</v>
       </c>
     </row>
-    <row r="159" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A159" s="12" t="s">
         <v>37</v>
       </c>
@@ -39440,7 +39440,7 @@
         <v>43543</v>
       </c>
     </row>
-    <row r="160" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A160" s="12" t="s">
         <v>37</v>
       </c>
@@ -39532,7 +39532,7 @@
         <v>43552</v>
       </c>
     </row>
-    <row r="161" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A161" s="12" t="s">
         <v>37</v>
       </c>
@@ -39624,7 +39624,7 @@
         <v>43525</v>
       </c>
     </row>
-    <row r="162" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A162" s="12" t="s">
         <v>37</v>
       </c>
@@ -39718,7 +39718,7 @@
         <v>43605</v>
       </c>
     </row>
-    <row r="163" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A163" s="12" t="s">
         <v>37</v>
       </c>
@@ -39810,7 +39810,7 @@
         <v>43515</v>
       </c>
     </row>
-    <row r="164" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A164" s="12" t="s">
         <v>37</v>
       </c>
@@ -39902,7 +39902,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="165" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A165" s="12" t="s">
         <v>37</v>
       </c>
@@ -39994,7 +39994,7 @@
         <v>43539</v>
       </c>
     </row>
-    <row r="166" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A166" s="12" t="s">
         <v>37</v>
       </c>
@@ -40084,7 +40084,7 @@
         <v>43539</v>
       </c>
     </row>
-    <row r="167" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A167" s="12" t="s">
         <v>37</v>
       </c>
@@ -40176,7 +40176,7 @@
         <v>43578</v>
       </c>
     </row>
-    <row r="168" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A168" s="12" t="s">
         <v>37</v>
       </c>
@@ -40268,7 +40268,7 @@
         <v>43566</v>
       </c>
     </row>
-    <row r="169" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A169" s="12" t="s">
         <v>37</v>
       </c>
@@ -40360,7 +40360,7 @@
         <v>43511</v>
       </c>
     </row>
-    <row r="170" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A170" s="12" t="s">
         <v>37</v>
       </c>
@@ -40452,7 +40452,7 @@
         <v>43559</v>
       </c>
     </row>
-    <row r="171" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A171" s="12" t="s">
         <v>37</v>
       </c>
@@ -40546,7 +40546,7 @@
         <v>43523</v>
       </c>
     </row>
-    <row r="172" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A172" s="12" t="s">
         <v>37</v>
       </c>
@@ -40638,7 +40638,7 @@
         <v>43489</v>
       </c>
     </row>
-    <row r="173" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A173" s="12" t="s">
         <v>37</v>
       </c>
@@ -40730,7 +40730,7 @@
         <v>43566</v>
       </c>
     </row>
-    <row r="174" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A174" s="12" t="s">
         <v>37</v>
       </c>
@@ -40822,7 +40822,7 @@
         <v>43606</v>
       </c>
     </row>
-    <row r="175" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A175" s="12" t="s">
         <v>37</v>
       </c>
@@ -40914,7 +40914,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="176" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A176" s="12" t="s">
         <v>37</v>
       </c>
@@ -41006,7 +41006,7 @@
         <v>43510</v>
       </c>
     </row>
-    <row r="177" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A177" s="12" t="s">
         <v>37</v>
       </c>
@@ -41096,7 +41096,7 @@
         <v>43518</v>
       </c>
     </row>
-    <row r="178" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A178" s="12" t="s">
         <v>37</v>
       </c>
@@ -41188,7 +41188,7 @@
         <v>43522</v>
       </c>
     </row>
-    <row r="179" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A179" s="12" t="s">
         <v>37</v>
       </c>
@@ -41278,7 +41278,7 @@
         <v>43552</v>
       </c>
     </row>
-    <row r="180" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A180" s="12" t="s">
         <v>37</v>
       </c>
@@ -41370,7 +41370,7 @@
         <v>43509</v>
       </c>
     </row>
-    <row r="181" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A181" s="12" t="s">
         <v>37</v>
       </c>
@@ -41458,7 +41458,7 @@
       </c>
       <c r="AF181" s="20"/>
     </row>
-    <row r="182" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A182" s="12" t="s">
         <v>37</v>
       </c>
@@ -41550,7 +41550,7 @@
         <v>43515</v>
       </c>
     </row>
-    <row r="183" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A183" s="12" t="s">
         <v>37</v>
       </c>
@@ -41642,7 +41642,7 @@
         <v>43522</v>
       </c>
     </row>
-    <row r="184" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A184" s="12" t="s">
         <v>37</v>
       </c>
@@ -41734,7 +41734,7 @@
         <v>43496</v>
       </c>
     </row>
-    <row r="185" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A185" s="12" t="s">
         <v>37</v>
       </c>
@@ -41826,7 +41826,7 @@
         <v>43563</v>
       </c>
     </row>
-    <row r="186" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A186" s="12" t="s">
         <v>37</v>
       </c>
@@ -41918,7 +41918,7 @@
         <v>43516</v>
       </c>
     </row>
-    <row r="187" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A187" s="12" t="s">
         <v>37</v>
       </c>
@@ -42010,7 +42010,7 @@
         <v>43511</v>
       </c>
     </row>
-    <row r="188" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A188" s="12" t="s">
         <v>37</v>
       </c>
@@ -42102,7 +42102,7 @@
         <v>43515</v>
       </c>
     </row>
-    <row r="189" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A189" s="12" t="s">
         <v>37</v>
       </c>
@@ -42192,7 +42192,7 @@
         <v>43510</v>
       </c>
     </row>
-    <row r="190" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A190" s="12" t="s">
         <v>37</v>
       </c>
@@ -42284,7 +42284,7 @@
         <v>43516</v>
       </c>
     </row>
-    <row r="191" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A191" s="12" t="s">
         <v>37</v>
       </c>
@@ -42376,7 +42376,7 @@
         <v>43525</v>
       </c>
     </row>
-    <row r="192" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A192" s="12" t="s">
         <v>37</v>
       </c>
@@ -42468,7 +42468,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="193" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A193" s="12" t="s">
         <v>37</v>
       </c>
@@ -42560,7 +42560,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="194" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A194" s="12" t="s">
         <v>37</v>
       </c>
@@ -42652,7 +42652,7 @@
         <v>43579</v>
       </c>
     </row>
-    <row r="195" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A195" s="12" t="s">
         <v>37</v>
       </c>
@@ -42744,7 +42744,7 @@
         <v>43585</v>
       </c>
     </row>
-    <row r="196" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A196" s="12" t="s">
         <v>37</v>
       </c>
@@ -42836,7 +42836,7 @@
         <v>43518</v>
       </c>
     </row>
-    <row r="197" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A197" s="12" t="s">
         <v>37</v>
       </c>
@@ -42928,7 +42928,7 @@
         <v>43613</v>
       </c>
     </row>
-    <row r="198" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A198" s="12" t="s">
         <v>37</v>
       </c>
@@ -43020,7 +43020,7 @@
         <v>43606</v>
       </c>
     </row>
-    <row r="199" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A199" s="12" t="s">
         <v>37</v>
       </c>
@@ -43112,7 +43112,7 @@
         <v>43496</v>
       </c>
     </row>
-    <row r="200" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A200" s="12" t="s">
         <v>37</v>
       </c>
@@ -43204,7 +43204,7 @@
         <v>43543</v>
       </c>
     </row>
-    <row r="201" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A201" s="12" t="s">
         <v>37</v>
       </c>
@@ -43294,7 +43294,7 @@
         <v>43539</v>
       </c>
     </row>
-    <row r="202" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A202" s="12" t="s">
         <v>37</v>
       </c>
@@ -43384,7 +43384,7 @@
         <v>43496</v>
       </c>
     </row>
-    <row r="203" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A203" s="12" t="s">
         <v>37</v>
       </c>
@@ -43476,7 +43476,7 @@
         <v>43531</v>
       </c>
     </row>
-    <row r="204" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A204" s="12" t="s">
         <v>37</v>
       </c>
@@ -43562,7 +43562,7 @@
       <c r="AE204" s="19"/>
       <c r="AF204" s="20"/>
     </row>
-    <row r="205" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A205" s="12" t="s">
         <v>37</v>
       </c>
@@ -43652,7 +43652,7 @@
         <v>43700</v>
       </c>
     </row>
-    <row r="206" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A206" s="12" t="s">
         <v>37</v>
       </c>
@@ -43744,7 +43744,7 @@
         <v>43495</v>
       </c>
     </row>
-    <row r="207" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A207" s="12" t="s">
         <v>37</v>
       </c>
@@ -43836,7 +43836,7 @@
         <v>43609</v>
       </c>
     </row>
-    <row r="208" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A208" s="12" t="s">
         <v>37</v>
       </c>
@@ -43928,7 +43928,7 @@
         <v>43601</v>
       </c>
     </row>
-    <row r="209" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A209" s="12" t="s">
         <v>37</v>
       </c>
@@ -44020,7 +44020,7 @@
         <v>43502</v>
       </c>
     </row>
-    <row r="210" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A210" s="12" t="s">
         <v>37</v>
       </c>
@@ -44112,7 +44112,7 @@
         <v>43538</v>
       </c>
     </row>
-    <row r="211" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A211" s="12" t="s">
         <v>37</v>
       </c>
@@ -44204,7 +44204,7 @@
         <v>43600</v>
       </c>
     </row>
-    <row r="212" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A212" s="12" t="s">
         <v>37</v>
       </c>
@@ -44296,7 +44296,7 @@
         <v>43494</v>
       </c>
     </row>
-    <row r="213" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A213" s="12" t="s">
         <v>37</v>
       </c>
@@ -44388,7 +44388,7 @@
         <v>43503</v>
       </c>
     </row>
-    <row r="214" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A214" s="12" t="s">
         <v>37</v>
       </c>
@@ -44480,7 +44480,7 @@
         <v>43516</v>
       </c>
     </row>
-    <row r="215" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A215" s="12" t="s">
         <v>37</v>
       </c>
@@ -44572,7 +44572,7 @@
         <v>43495</v>
       </c>
     </row>
-    <row r="216" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A216" s="12" t="s">
         <v>37</v>
       </c>
@@ -44662,7 +44662,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="217" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A217" s="12" t="s">
         <v>37</v>
       </c>
@@ -44754,7 +44754,7 @@
         <v>43510</v>
       </c>
     </row>
-    <row r="218" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A218" s="12" t="s">
         <v>37</v>
       </c>
@@ -44846,7 +44846,7 @@
         <v>43572</v>
       </c>
     </row>
-    <row r="219" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A219" s="12" t="s">
         <v>37</v>
       </c>
@@ -44938,7 +44938,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="220" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A220" s="12" t="s">
         <v>37</v>
       </c>
@@ -45030,7 +45030,7 @@
         <v>43487</v>
       </c>
     </row>
-    <row r="221" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A221" s="12" t="s">
         <v>37</v>
       </c>
@@ -45122,7 +45122,7 @@
         <v>43502</v>
       </c>
     </row>
-    <row r="222" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A222" s="12" t="s">
         <v>37</v>
       </c>
@@ -45214,7 +45214,7 @@
         <v>43504</v>
       </c>
     </row>
-    <row r="223" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A223" s="12" t="s">
         <v>37</v>
       </c>
@@ -45306,7 +45306,7 @@
         <v>43510</v>
       </c>
     </row>
-    <row r="224" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A224" s="12" t="s">
         <v>37</v>
       </c>
@@ -45398,7 +45398,7 @@
         <v>43487</v>
       </c>
     </row>
-    <row r="225" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A225" s="12" t="s">
         <v>37</v>
       </c>
@@ -45492,7 +45492,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="226" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A226" s="12" t="s">
         <v>37</v>
       </c>
@@ -45582,7 +45582,7 @@
         <v>43573</v>
       </c>
     </row>
-    <row r="227" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A227" s="12" t="s">
         <v>37</v>
       </c>
@@ -45672,7 +45672,7 @@
         <v>43628</v>
       </c>
     </row>
-    <row r="228" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A228" s="12" t="s">
         <v>37</v>
       </c>
@@ -45764,7 +45764,7 @@
         <v>43515</v>
       </c>
     </row>
-    <row r="229" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A229" s="12" t="s">
         <v>37</v>
       </c>
@@ -45856,7 +45856,7 @@
         <v>43523</v>
       </c>
     </row>
-    <row r="230" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A230" s="12" t="s">
         <v>37</v>
       </c>
@@ -45948,7 +45948,7 @@
         <v>43581</v>
       </c>
     </row>
-    <row r="231" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A231" s="12" t="s">
         <v>37</v>
       </c>
@@ -46040,7 +46040,7 @@
         <v>43544</v>
       </c>
     </row>
-    <row r="232" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A232" s="12" t="s">
         <v>37</v>
       </c>
@@ -46130,7 +46130,7 @@
         <v>43495</v>
       </c>
     </row>
-    <row r="233" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A233" s="12" t="s">
         <v>37</v>
       </c>
@@ -46222,7 +46222,7 @@
         <v>43609</v>
       </c>
     </row>
-    <row r="234" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A234" s="12" t="s">
         <v>37</v>
       </c>
@@ -46314,7 +46314,7 @@
         <v>43552</v>
       </c>
     </row>
-    <row r="235" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A235" s="12" t="s">
         <v>37</v>
       </c>
@@ -46406,7 +46406,7 @@
         <v>43504</v>
       </c>
     </row>
-    <row r="236" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A236" s="12" t="s">
         <v>37</v>
       </c>
@@ -46498,7 +46498,7 @@
         <v>43557</v>
       </c>
     </row>
-    <row r="237" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A237" s="12" t="s">
         <v>37</v>
       </c>
@@ -46590,7 +46590,7 @@
         <v>43634</v>
       </c>
     </row>
-    <row r="238" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A238" s="12" t="s">
         <v>37</v>
       </c>
@@ -46670,7 +46670,7 @@
       <c r="AE238" s="19"/>
       <c r="AF238" s="20"/>
     </row>
-    <row r="239" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A239" s="12" t="s">
         <v>37</v>
       </c>
@@ -46762,7 +46762,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="240" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A240" s="12" t="s">
         <v>37</v>
       </c>
@@ -46854,7 +46854,7 @@
         <v>43494</v>
       </c>
     </row>
-    <row r="241" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A241" s="12" t="s">
         <v>37</v>
       </c>
@@ -46944,7 +46944,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="242" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A242" s="12" t="s">
         <v>37</v>
       </c>
@@ -47036,7 +47036,7 @@
         <v>43495</v>
       </c>
     </row>
-    <row r="243" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A243" s="12" t="s">
         <v>37</v>
       </c>
@@ -47126,7 +47126,7 @@
         <v>43502</v>
       </c>
     </row>
-    <row r="244" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A244" s="12" t="s">
         <v>37</v>
       </c>
@@ -47216,7 +47216,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="245" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A245" s="12" t="s">
         <v>37</v>
       </c>
@@ -47308,7 +47308,7 @@
         <v>43523</v>
       </c>
     </row>
-    <row r="246" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A246" s="12" t="s">
         <v>37</v>
       </c>
@@ -47398,7 +47398,7 @@
         <v>43551</v>
       </c>
     </row>
-    <row r="247" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A247" s="12" t="s">
         <v>37</v>
       </c>
@@ -47490,7 +47490,7 @@
         <v>43510</v>
       </c>
     </row>
-    <row r="248" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A248" s="12" t="s">
         <v>37</v>
       </c>
@@ -47582,7 +47582,7 @@
         <v>43578</v>
       </c>
     </row>
-    <row r="249" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A249" s="12" t="s">
         <v>37</v>
       </c>
@@ -47672,7 +47672,7 @@
       </c>
       <c r="AF249" s="20"/>
     </row>
-    <row r="250" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A250" s="12" t="s">
         <v>37</v>
       </c>
@@ -47764,7 +47764,7 @@
         <v>43502</v>
       </c>
     </row>
-    <row r="251" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A251" s="12" t="s">
         <v>37</v>
       </c>
@@ -47844,7 +47844,7 @@
       <c r="AE251" s="19"/>
       <c r="AF251" s="20"/>
     </row>
-    <row r="252" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A252" s="12" t="s">
         <v>37</v>
       </c>
@@ -47936,7 +47936,7 @@
         <v>43510</v>
       </c>
     </row>
-    <row r="253" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A253" s="12" t="s">
         <v>37</v>
       </c>
@@ -48028,7 +48028,7 @@
         <v>43543</v>
       </c>
     </row>
-    <row r="254" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A254" s="12" t="s">
         <v>37</v>
       </c>
@@ -48120,7 +48120,7 @@
         <v>43648</v>
       </c>
     </row>
-    <row r="255" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A255" s="12" t="s">
         <v>37</v>
       </c>
@@ -48210,7 +48210,7 @@
         <v>43522</v>
       </c>
     </row>
-    <row r="256" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A256" s="12" t="s">
         <v>37</v>
       </c>
@@ -48302,7 +48302,7 @@
         <v>43518</v>
       </c>
     </row>
-    <row r="257" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A257" s="12" t="s">
         <v>37</v>
       </c>
@@ -48394,7 +48394,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="258" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A258" s="12" t="s">
         <v>37</v>
       </c>
@@ -48488,7 +48488,7 @@
         <v>43558</v>
       </c>
     </row>
-    <row r="259" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A259" s="12" t="s">
         <v>37</v>
       </c>
@@ -48580,7 +48580,7 @@
         <v>43501</v>
       </c>
     </row>
-    <row r="260" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A260" s="12" t="s">
         <v>37</v>
       </c>
@@ -48672,7 +48672,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="261" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A261" s="12" t="s">
         <v>37</v>
       </c>
@@ -48764,7 +48764,7 @@
         <v>43608</v>
       </c>
     </row>
-    <row r="262" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A262" s="12" t="s">
         <v>37</v>
       </c>
@@ -48856,7 +48856,7 @@
         <v>43523</v>
       </c>
     </row>
-    <row r="263" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A263" s="12" t="s">
         <v>37</v>
       </c>
@@ -48948,7 +48948,7 @@
         <v>43522</v>
       </c>
     </row>
-    <row r="264" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A264" s="12" t="s">
         <v>37</v>
       </c>
@@ -49040,7 +49040,7 @@
         <v>43508</v>
       </c>
     </row>
-    <row r="265" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A265" s="12" t="s">
         <v>37</v>
       </c>
@@ -49130,7 +49130,7 @@
         <v>43509</v>
       </c>
     </row>
-    <row r="266" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A266" s="12" t="s">
         <v>37</v>
       </c>
@@ -49222,7 +49222,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="267" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A267" s="12" t="s">
         <v>37</v>
       </c>
@@ -49302,7 +49302,7 @@
       <c r="AE267" s="19"/>
       <c r="AF267" s="20"/>
     </row>
-    <row r="268" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A268" s="12" t="s">
         <v>37</v>
       </c>
@@ -49382,7 +49382,7 @@
       <c r="AE268" s="19"/>
       <c r="AF268" s="20"/>
     </row>
-    <row r="269" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A269" s="12" t="s">
         <v>37</v>
       </c>
@@ -49474,7 +49474,7 @@
         <v>43503</v>
       </c>
     </row>
-    <row r="270" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A270" s="12" t="s">
         <v>37</v>
       </c>
@@ -49566,7 +49566,7 @@
         <v>43523</v>
       </c>
     </row>
-    <row r="271" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A271" s="12" t="s">
         <v>37</v>
       </c>
@@ -49656,7 +49656,7 @@
         <v>43496</v>
       </c>
     </row>
-    <row r="272" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A272" s="12" t="s">
         <v>37</v>
       </c>
@@ -49748,7 +49748,7 @@
         <v>43504</v>
       </c>
     </row>
-    <row r="273" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A273" s="12" t="s">
         <v>37</v>
       </c>
@@ -49840,7 +49840,7 @@
         <v>43508</v>
       </c>
     </row>
-    <row r="274" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A274" s="12" t="s">
         <v>37</v>
       </c>
@@ -49932,7 +49932,7 @@
         <v>43504</v>
       </c>
     </row>
-    <row r="275" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A275" s="12" t="s">
         <v>37</v>
       </c>
@@ -50022,7 +50022,7 @@
         <v>43515</v>
       </c>
     </row>
-    <row r="276" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A276" s="12" t="s">
         <v>37</v>
       </c>
@@ -50112,7 +50112,7 @@
         <v>43607</v>
       </c>
     </row>
-    <row r="277" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A277" s="12" t="s">
         <v>37</v>
       </c>
@@ -50204,7 +50204,7 @@
         <v>43515</v>
       </c>
     </row>
-    <row r="278" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A278" s="12" t="s">
         <v>37</v>
       </c>
@@ -50296,7 +50296,7 @@
         <v>43608</v>
       </c>
     </row>
-    <row r="279" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A279" s="12" t="s">
         <v>37</v>
       </c>
@@ -50388,7 +50388,7 @@
         <v>43607</v>
       </c>
     </row>
-    <row r="280" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A280" s="12" t="s">
         <v>37</v>
       </c>
@@ -50480,7 +50480,7 @@
         <v>43515</v>
       </c>
     </row>
-    <row r="281" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A281" s="12" t="s">
         <v>37</v>
       </c>
@@ -50572,7 +50572,7 @@
         <v>43570</v>
       </c>
     </row>
-    <row r="282" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A282" s="12" t="s">
         <v>37</v>
       </c>
@@ -50664,7 +50664,7 @@
         <v>43524</v>
       </c>
     </row>
-    <row r="283" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A283" s="12" t="s">
         <v>37</v>
       </c>
@@ -50758,7 +50758,7 @@
         <v>43532</v>
       </c>
     </row>
-    <row r="284" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A284" s="12" t="s">
         <v>37</v>
       </c>
@@ -50850,7 +50850,7 @@
         <v>43628</v>
       </c>
     </row>
-    <row r="285" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A285" s="12" t="s">
         <v>37</v>
       </c>
@@ -50942,7 +50942,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="286" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A286" s="12" t="s">
         <v>37</v>
       </c>
@@ -51034,7 +51034,7 @@
         <v>43494</v>
       </c>
     </row>
-    <row r="287" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A287" s="12" t="s">
         <v>37</v>
       </c>
@@ -51126,7 +51126,7 @@
         <v>43516</v>
       </c>
     </row>
-    <row r="288" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A288" s="12" t="s">
         <v>37</v>
       </c>
@@ -51216,7 +51216,7 @@
         <v>43518</v>
       </c>
     </row>
-    <row r="289" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A289" s="12" t="s">
         <v>37</v>
       </c>
@@ -51296,7 +51296,7 @@
       <c r="AE289" s="19"/>
       <c r="AF289" s="20"/>
     </row>
-    <row r="290" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A290" s="12" t="s">
         <v>37</v>
       </c>
@@ -51388,7 +51388,7 @@
         <v>43489</v>
       </c>
     </row>
-    <row r="291" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A291" s="12" t="s">
         <v>37</v>
       </c>
@@ -51480,7 +51480,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="292" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A292" s="12" t="s">
         <v>37</v>
       </c>
@@ -51572,7 +51572,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="293" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A293" s="12" t="s">
         <v>37</v>
       </c>
@@ -51664,7 +51664,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="294" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A294" s="12" t="s">
         <v>37</v>
       </c>
@@ -51756,7 +51756,7 @@
         <v>43567</v>
       </c>
     </row>
-    <row r="295" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A295" s="12" t="s">
         <v>37</v>
       </c>
@@ -51848,7 +51848,7 @@
         <v>43510</v>
       </c>
     </row>
-    <row r="296" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A296" s="12" t="s">
         <v>37</v>
       </c>
@@ -51940,7 +51940,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="297" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A297" s="12" t="s">
         <v>37</v>
       </c>
@@ -52032,7 +52032,7 @@
         <v>43676</v>
       </c>
     </row>
-    <row r="298" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A298" s="12" t="s">
         <v>37</v>
       </c>
@@ -52124,7 +52124,7 @@
         <v>43545</v>
       </c>
     </row>
-    <row r="299" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A299" s="12" t="s">
         <v>37</v>
       </c>
@@ -52216,7 +52216,7 @@
         <v>43494</v>
       </c>
     </row>
-    <row r="300" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A300" s="12" t="s">
         <v>37</v>
       </c>
@@ -52308,7 +52308,7 @@
         <v>43503</v>
       </c>
     </row>
-    <row r="301" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A301" s="12" t="s">
         <v>37</v>
       </c>
@@ -52400,7 +52400,7 @@
         <v>43538</v>
       </c>
     </row>
-    <row r="302" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A302" s="12" t="s">
         <v>37</v>
       </c>
@@ -52492,7 +52492,7 @@
         <v>43511</v>
       </c>
     </row>
-    <row r="303" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A303" s="12" t="s">
         <v>37</v>
       </c>
@@ -52586,7 +52586,7 @@
         <v>43545</v>
       </c>
     </row>
-    <row r="304" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A304" s="12" t="s">
         <v>37</v>
       </c>
@@ -52676,7 +52676,7 @@
         <v>43511</v>
       </c>
     </row>
-    <row r="305" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A305" s="12" t="s">
         <v>37</v>
       </c>
@@ -52768,7 +52768,7 @@
         <v>43523</v>
       </c>
     </row>
-    <row r="306" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A306" s="12" t="s">
         <v>37</v>
       </c>
@@ -52860,7 +52860,7 @@
         <v>43515</v>
       </c>
     </row>
-    <row r="307" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A307" s="12" t="s">
         <v>37</v>
       </c>
@@ -52952,7 +52952,7 @@
         <v>43566</v>
       </c>
     </row>
-    <row r="308" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A308" s="12" t="s">
         <v>37</v>
       </c>
@@ -53044,7 +53044,7 @@
         <v>43521</v>
       </c>
     </row>
-    <row r="309" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A309" s="12" t="s">
         <v>37</v>
       </c>
@@ -53136,7 +53136,7 @@
         <v>43559</v>
       </c>
     </row>
-    <row r="310" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A310" s="12" t="s">
         <v>37</v>
       </c>
@@ -53228,7 +53228,7 @@
         <v>43494</v>
       </c>
     </row>
-    <row r="311" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A311" s="12" t="s">
         <v>37</v>
       </c>
@@ -53320,7 +53320,7 @@
         <v>43539</v>
       </c>
     </row>
-    <row r="312" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A312" s="12" t="s">
         <v>37</v>
       </c>
@@ -53412,7 +53412,7 @@
         <v>43510</v>
       </c>
     </row>
-    <row r="313" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A313" s="12" t="s">
         <v>37</v>
       </c>
@@ -53502,7 +53502,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="314" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A314" s="12" t="s">
         <v>37</v>
       </c>
@@ -53594,7 +53594,7 @@
         <v>43515</v>
       </c>
     </row>
-    <row r="315" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A315" s="12" t="s">
         <v>37</v>
       </c>
@@ -53686,7 +53686,7 @@
         <v>43509</v>
       </c>
     </row>
-    <row r="316" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A316" s="12" t="s">
         <v>37</v>
       </c>
@@ -53778,7 +53778,7 @@
         <v>43502</v>
       </c>
     </row>
-    <row r="317" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A317" s="12" t="s">
         <v>37</v>
       </c>
@@ -53870,7 +53870,7 @@
         <v>43509</v>
       </c>
     </row>
-    <row r="318" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A318" s="12" t="s">
         <v>37</v>
       </c>
@@ -53962,7 +53962,7 @@
         <v>43518</v>
       </c>
     </row>
-    <row r="319" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A319" s="12" t="s">
         <v>37</v>
       </c>
@@ -54056,7 +54056,7 @@
         <v>43578</v>
       </c>
     </row>
-    <row r="320" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A320" s="12" t="s">
         <v>37</v>
       </c>
@@ -54148,7 +54148,7 @@
         <v>43551</v>
       </c>
     </row>
-    <row r="321" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A321" s="12" t="s">
         <v>37</v>
       </c>
@@ -54240,7 +54240,7 @@
         <v>43497</v>
       </c>
     </row>
-    <row r="322" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A322" s="12" t="s">
         <v>37</v>
       </c>
@@ -54332,7 +54332,7 @@
         <v>43510</v>
       </c>
     </row>
-    <row r="323" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A323" s="12" t="s">
         <v>37</v>
       </c>
@@ -54422,7 +54422,7 @@
         <v>43635</v>
       </c>
     </row>
-    <row r="324" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A324" s="12" t="s">
         <v>37</v>
       </c>
@@ -54514,7 +54514,7 @@
         <v>43545</v>
       </c>
     </row>
-    <row r="325" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A325" s="12" t="s">
         <v>37</v>
       </c>
@@ -54608,7 +54608,7 @@
         <v>43539</v>
       </c>
     </row>
-    <row r="326" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A326" s="12" t="s">
         <v>37</v>
       </c>
@@ -54700,7 +54700,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="327" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A327" s="12" t="s">
         <v>37</v>
       </c>
@@ -54792,7 +54792,7 @@
         <v>43508</v>
       </c>
     </row>
-    <row r="328" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A328" s="12" t="s">
         <v>37</v>
       </c>
@@ -54884,7 +54884,7 @@
         <v>43573</v>
       </c>
     </row>
-    <row r="329" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A329" s="12" t="s">
         <v>37</v>
       </c>
@@ -54976,7 +54976,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="330" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A330" s="12" t="s">
         <v>37</v>
       </c>
@@ -55068,7 +55068,7 @@
         <v>43504</v>
       </c>
     </row>
-    <row r="331" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A331" s="12" t="s">
         <v>37</v>
       </c>
@@ -55160,7 +55160,7 @@
         <v>43502</v>
       </c>
     </row>
-    <row r="332" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A332" s="12" t="s">
         <v>37</v>
       </c>
@@ -55252,7 +55252,7 @@
         <v>43510</v>
       </c>
     </row>
-    <row r="333" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A333" s="12" t="s">
         <v>37</v>
       </c>
@@ -55486,7 +55486,7 @@
       <c r="AE335" s="19"/>
       <c r="AF335" s="20"/>
     </row>
-    <row r="336" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A336" s="12" t="s">
         <v>37</v>
       </c>
@@ -55720,7 +55720,7 @@
       <c r="AE338" s="19"/>
       <c r="AF338" s="20"/>
     </row>
-    <row r="339" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A339" s="12" t="s">
         <v>37</v>
       </c>
@@ -55794,7 +55794,7 @@
       <c r="AE339" s="19"/>
       <c r="AF339" s="20"/>
     </row>
-    <row r="340" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A340" s="12" t="s">
         <v>37</v>
       </c>
@@ -55870,7 +55870,7 @@
       <c r="AE340" s="19"/>
       <c r="AF340" s="20"/>
     </row>
-    <row r="341" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A341" s="12" t="s">
         <v>37</v>
       </c>
@@ -55944,7 +55944,7 @@
       <c r="AE341" s="19"/>
       <c r="AF341" s="20"/>
     </row>
-    <row r="342" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A342" s="12" t="s">
         <v>37</v>
       </c>
@@ -56102,7 +56102,7 @@
       </c>
       <c r="AF343" s="20"/>
     </row>
-    <row r="344" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A344" s="12" t="s">
         <v>37</v>
       </c>
@@ -56176,7 +56176,7 @@
       <c r="AE344" s="19"/>
       <c r="AF344" s="20"/>
     </row>
-    <row r="345" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A345" s="12" t="s">
         <v>37</v>
       </c>
@@ -56714,7 +56714,7 @@
       <c r="AE351" s="19"/>
       <c r="AF351" s="20"/>
     </row>
-    <row r="352" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A352" s="12" t="s">
         <v>37</v>
       </c>
@@ -57018,7 +57018,7 @@
       <c r="AE355" s="19"/>
       <c r="AF355" s="20"/>
     </row>
-    <row r="356" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A356" s="12" t="s">
         <v>37</v>
       </c>
@@ -57092,7 +57092,7 @@
       <c r="AE356" s="19"/>
       <c r="AF356" s="20"/>
     </row>
-    <row r="357" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A357" s="12" t="s">
         <v>37</v>
       </c>
@@ -57552,7 +57552,7 @@
       </c>
       <c r="AF362" s="20"/>
     </row>
-    <row r="363" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A363" s="12" t="s">
         <v>37</v>
       </c>
@@ -57780,7 +57780,7 @@
       <c r="AE365" s="19"/>
       <c r="AF365" s="20"/>
     </row>
-    <row r="366" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A366" s="12" t="s">
         <v>37</v>
       </c>
@@ -57860,7 +57860,7 @@
       <c r="AE366" s="19"/>
       <c r="AF366" s="20"/>
     </row>
-    <row r="367" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A367" s="12" t="s">
         <v>37</v>
       </c>
@@ -57936,7 +57936,7 @@
       <c r="AE367" s="19"/>
       <c r="AF367" s="20"/>
     </row>
-    <row r="368" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A368" s="12" t="s">
         <v>37</v>
       </c>
@@ -58170,7 +58170,7 @@
       <c r="AE370" s="19"/>
       <c r="AF370" s="20"/>
     </row>
-    <row r="371" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A371" s="12" t="s">
         <v>37</v>
       </c>
@@ -58244,7 +58244,7 @@
       <c r="AE371" s="19"/>
       <c r="AF371" s="20"/>
     </row>
-    <row r="372" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A372" s="12" t="s">
         <v>37</v>
       </c>
@@ -58398,7 +58398,7 @@
       <c r="AE373" s="19"/>
       <c r="AF373" s="20"/>
     </row>
-    <row r="374" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A374" s="12" t="s">
         <v>37</v>
       </c>
@@ -58936,7 +58936,7 @@
       <c r="AE380" s="19"/>
       <c r="AF380" s="20"/>
     </row>
-    <row r="381" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A381" s="12" t="s">
         <v>37</v>
       </c>
@@ -59010,7 +59010,7 @@
       <c r="AE381" s="19"/>
       <c r="AF381" s="20"/>
     </row>
-    <row r="382" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A382" s="12" t="s">
         <v>37</v>
       </c>
@@ -59088,7 +59088,7 @@
       <c r="AE382" s="19"/>
       <c r="AF382" s="20"/>
     </row>
-    <row r="383" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A383" s="12" t="s">
         <v>37</v>
       </c>
@@ -59164,7 +59164,7 @@
       <c r="AE383" s="19"/>
       <c r="AF383" s="20"/>
     </row>
-    <row r="384" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A384" s="12" t="s">
         <v>37</v>
       </c>
@@ -59476,7 +59476,7 @@
       <c r="AE387" s="19"/>
       <c r="AF387" s="20"/>
     </row>
-    <row r="388" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A388" s="12" t="s">
         <v>37</v>
       </c>
@@ -59628,7 +59628,7 @@
       <c r="AE389" s="19"/>
       <c r="AF389" s="20"/>
     </row>
-    <row r="390" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A390" s="12" t="s">
         <v>37</v>
       </c>
@@ -59782,7 +59782,7 @@
       <c r="AE391" s="19"/>
       <c r="AF391" s="20"/>
     </row>
-    <row r="392" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A392" s="12" t="s">
         <v>37</v>
       </c>
@@ -59856,7 +59856,7 @@
       <c r="AE392" s="19"/>
       <c r="AF392" s="20"/>
     </row>
-    <row r="393" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A393" s="12" t="s">
         <v>37</v>
       </c>
@@ -60006,7 +60006,7 @@
       <c r="AE394" s="19"/>
       <c r="AF394" s="20"/>
     </row>
-    <row r="395" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A395" s="12" t="s">
         <v>37</v>
       </c>
@@ -60162,7 +60162,7 @@
       <c r="AE396" s="19"/>
       <c r="AF396" s="20"/>
     </row>
-    <row r="397" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A397" s="12" t="s">
         <v>37</v>
       </c>
@@ -60390,7 +60390,7 @@
       <c r="AE399" s="19"/>
       <c r="AF399" s="20"/>
     </row>
-    <row r="400" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A400" s="12" t="s">
         <v>37</v>
       </c>
@@ -60620,7 +60620,7 @@
       <c r="AE402" s="19"/>
       <c r="AF402" s="20"/>
     </row>
-    <row r="403" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A403" s="12" t="s">
         <v>37</v>
       </c>
@@ -60776,7 +60776,7 @@
       </c>
       <c r="AF404" s="20"/>
     </row>
-    <row r="405" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A405" s="12" t="s">
         <v>37</v>
       </c>
@@ -60850,7 +60850,7 @@
       <c r="AE405" s="19"/>
       <c r="AF405" s="20"/>
     </row>
-    <row r="406" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A406" s="12" t="s">
         <v>37</v>
       </c>
@@ -60924,7 +60924,7 @@
       <c r="AE406" s="19"/>
       <c r="AF406" s="20"/>
     </row>
-    <row r="407" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A407" s="12" t="s">
         <v>37</v>
       </c>
@@ -61156,7 +61156,7 @@
       <c r="AE409" s="19"/>
       <c r="AF409" s="20"/>
     </row>
-    <row r="410" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A410" s="12" t="s">
         <v>37</v>
       </c>
@@ -61232,7 +61232,7 @@
       <c r="AE410" s="19"/>
       <c r="AF410" s="20"/>
     </row>
-    <row r="411" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A411" s="12" t="s">
         <v>37</v>
       </c>
@@ -61626,7 +61626,7 @@
       </c>
       <c r="AF415" s="20"/>
     </row>
-    <row r="416" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A416" s="12" t="s">
         <v>37</v>
       </c>
@@ -62166,7 +62166,7 @@
       <c r="AE422" s="19"/>
       <c r="AF422" s="20"/>
     </row>
-    <row r="423" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A423" s="12" t="s">
         <v>37</v>
       </c>
@@ -62474,7 +62474,7 @@
       <c r="AE426" s="19"/>
       <c r="AF426" s="20"/>
     </row>
-    <row r="427" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A427" s="12" t="s">
         <v>37</v>
       </c>
@@ -62624,7 +62624,7 @@
       <c r="AE428" s="19"/>
       <c r="AF428" s="20"/>
     </row>
-    <row r="429" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A429" s="12" t="s">
         <v>37</v>
       </c>
@@ -62850,7 +62850,7 @@
       <c r="AE431" s="19"/>
       <c r="AF431" s="20"/>
     </row>
-    <row r="432" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A432" s="12" t="s">
         <v>37</v>
       </c>
@@ -62924,7 +62924,7 @@
       <c r="AE432" s="19"/>
       <c r="AF432" s="20"/>
     </row>
-    <row r="433" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A433" s="12" t="s">
         <v>37</v>
       </c>
@@ -62998,7 +62998,7 @@
       <c r="AE433" s="19"/>
       <c r="AF433" s="20"/>
     </row>
-    <row r="434" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A434" s="12" t="s">
         <v>37</v>
       </c>
@@ -63224,7 +63224,7 @@
       <c r="AE436" s="19"/>
       <c r="AF436" s="20"/>
     </row>
-    <row r="437" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A437" s="12" t="s">
         <v>37</v>
       </c>
@@ -63374,7 +63374,7 @@
       <c r="AE438" s="19"/>
       <c r="AF438" s="20"/>
     </row>
-    <row r="439" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A439" s="12" t="s">
         <v>37</v>
       </c>
@@ -63758,7 +63758,7 @@
       <c r="AE443" s="19"/>
       <c r="AF443" s="20"/>
     </row>
-    <row r="444" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A444" s="12" t="s">
         <v>37</v>
       </c>
@@ -63832,7 +63832,7 @@
       <c r="AE444" s="19"/>
       <c r="AF444" s="20"/>
     </row>
-    <row r="445" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A445" s="12" t="s">
         <v>37</v>
       </c>
@@ -64144,7 +64144,7 @@
       <c r="AE448" s="19"/>
       <c r="AF448" s="20"/>
     </row>
-    <row r="449" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A449" s="12" t="s">
         <v>37</v>
       </c>
@@ -64298,7 +64298,7 @@
       </c>
       <c r="AF450" s="20"/>
     </row>
-    <row r="451" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A451" s="12" t="s">
         <v>37</v>
       </c>
@@ -64604,7 +64604,7 @@
       <c r="AE454" s="19"/>
       <c r="AF454" s="20"/>
     </row>
-    <row r="455" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A455" s="12" t="s">
         <v>37</v>
       </c>
@@ -64756,7 +64756,7 @@
       <c r="AE456" s="19"/>
       <c r="AF456" s="20"/>
     </row>
-    <row r="457" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A457" s="12" t="s">
         <v>37</v>
       </c>
@@ -65296,7 +65296,7 @@
       <c r="AE463" s="19"/>
       <c r="AF463" s="20"/>
     </row>
-    <row r="464" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A464" s="12" t="s">
         <v>37</v>
       </c>
@@ -65448,7 +65448,7 @@
       <c r="AE465" s="19"/>
       <c r="AF465" s="20"/>
     </row>
-    <row r="466" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A466" s="12" t="s">
         <v>37</v>
       </c>
@@ -65754,7 +65754,7 @@
       <c r="AE469" s="19"/>
       <c r="AF469" s="20"/>
     </row>
-    <row r="470" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A470" s="12" t="s">
         <v>37</v>
       </c>
@@ -66064,7 +66064,7 @@
       <c r="AE473" s="19"/>
       <c r="AF473" s="20"/>
     </row>
-    <row r="474" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A474" s="12" t="s">
         <v>37</v>
       </c>
@@ -66524,7 +66524,7 @@
       </c>
       <c r="AF479" s="20"/>
     </row>
-    <row r="480" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A480" s="12" t="s">
         <v>37</v>
       </c>
@@ -66676,7 +66676,7 @@
       <c r="AE481" s="19"/>
       <c r="AF481" s="20"/>
     </row>
-    <row r="482" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A482" s="12" t="s">
         <v>37</v>
       </c>
@@ -66750,7 +66750,7 @@
       <c r="AE482" s="19"/>
       <c r="AF482" s="20"/>
     </row>
-    <row r="483" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A483" s="12" t="s">
         <v>37</v>
       </c>
@@ -67138,7 +67138,7 @@
       <c r="AE487" s="19"/>
       <c r="AF487" s="20"/>
     </row>
-    <row r="488" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A488" s="12" t="s">
         <v>37</v>
       </c>
@@ -67288,7 +67288,7 @@
       <c r="AE489" s="19"/>
       <c r="AF489" s="20"/>
     </row>
-    <row r="490" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A490" s="12" t="s">
         <v>37</v>
       </c>
@@ -67668,7 +67668,7 @@
       <c r="AE494" s="19"/>
       <c r="AF494" s="20"/>
     </row>
-    <row r="495" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A495" s="12" t="s">
         <v>37</v>
       </c>
@@ -67822,7 +67822,7 @@
       <c r="AE496" s="19"/>
       <c r="AF496" s="20"/>
     </row>
-    <row r="497" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A497" s="12" t="s">
         <v>37</v>
       </c>
@@ -68048,7 +68048,7 @@
       <c r="AE499" s="19"/>
       <c r="AF499" s="20"/>
     </row>
-    <row r="500" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A500" s="12" t="s">
         <v>37</v>
       </c>
@@ -68206,7 +68206,7 @@
       </c>
       <c r="AF501" s="20"/>
     </row>
-    <row r="502" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A502" s="12" t="s">
         <v>37</v>
       </c>
@@ -68282,7 +68282,7 @@
       <c r="AE502" s="19"/>
       <c r="AF502" s="20"/>
     </row>
-    <row r="503" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A503" s="12" t="s">
         <v>37</v>
       </c>
@@ -68356,7 +68356,7 @@
       <c r="AE503" s="19"/>
       <c r="AF503" s="20"/>
     </row>
-    <row r="504" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A504" s="12" t="s">
         <v>37</v>
       </c>
@@ -68506,7 +68506,7 @@
       <c r="AE505" s="19"/>
       <c r="AF505" s="20"/>
     </row>
-    <row r="506" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A506" s="12" t="s">
         <v>37</v>
       </c>
@@ -68580,7 +68580,7 @@
       <c r="AE506" s="19"/>
       <c r="AF506" s="20"/>
     </row>
-    <row r="507" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A507" s="12" t="s">
         <v>37</v>
       </c>
@@ -68654,7 +68654,7 @@
       <c r="AE507" s="19"/>
       <c r="AF507" s="20"/>
     </row>
-    <row r="508" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A508" s="12" t="s">
         <v>37</v>
       </c>
@@ -68728,7 +68728,7 @@
       <c r="AE508" s="19"/>
       <c r="AF508" s="20"/>
     </row>
-    <row r="509" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A509" s="12" t="s">
         <v>37</v>
       </c>
@@ -69038,7 +69038,7 @@
       <c r="AE512" s="19"/>
       <c r="AF512" s="20"/>
     </row>
-    <row r="513" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A513" s="12" t="s">
         <v>37</v>
       </c>
@@ -69112,7 +69112,7 @@
       <c r="AE513" s="19"/>
       <c r="AF513" s="20"/>
     </row>
-    <row r="514" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A514" s="12" t="s">
         <v>37</v>
       </c>
@@ -69186,7 +69186,7 @@
       <c r="AE514" s="19"/>
       <c r="AF514" s="20"/>
     </row>
-    <row r="515" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A515" s="12" t="s">
         <v>37</v>
       </c>
@@ -69502,7 +69502,7 @@
       <c r="AE518" s="19"/>
       <c r="AF518" s="20"/>
     </row>
-    <row r="519" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A519" s="12" t="s">
         <v>37</v>
       </c>
@@ -69576,7 +69576,7 @@
       <c r="AE519" s="19"/>
       <c r="AF519" s="20"/>
     </row>
-    <row r="520" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A520" s="12" t="s">
         <v>37</v>
       </c>
@@ -69734,7 +69734,7 @@
       </c>
       <c r="AF521" s="20"/>
     </row>
-    <row r="522" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A522" s="12" t="s">
         <v>37</v>
       </c>
@@ -69964,7 +69964,7 @@
       <c r="AE524" s="19"/>
       <c r="AF524" s="20"/>
     </row>
-    <row r="525" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A525" s="12" t="s">
         <v>37</v>
       </c>
@@ -70038,7 +70038,7 @@
       <c r="AE525" s="19"/>
       <c r="AF525" s="20"/>
     </row>
-    <row r="526" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A526" s="12" t="s">
         <v>37</v>
       </c>
@@ -70112,7 +70112,7 @@
       <c r="AE526" s="19"/>
       <c r="AF526" s="20"/>
     </row>
-    <row r="527" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A527" s="12" t="s">
         <v>37</v>
       </c>
@@ -70186,7 +70186,7 @@
       <c r="AE527" s="19"/>
       <c r="AF527" s="20"/>
     </row>
-    <row r="528" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A528" s="12" t="s">
         <v>37</v>
       </c>
@@ -70260,7 +70260,7 @@
       <c r="AE528" s="19"/>
       <c r="AF528" s="20"/>
     </row>
-    <row r="529" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A529" s="12" t="s">
         <v>37</v>
       </c>
@@ -70334,7 +70334,7 @@
       <c r="AE529" s="19"/>
       <c r="AF529" s="20"/>
     </row>
-    <row r="530" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A530" s="12" t="s">
         <v>37</v>
       </c>
@@ -70408,7 +70408,7 @@
       <c r="AE530" s="19"/>
       <c r="AF530" s="20"/>
     </row>
-    <row r="531" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A531" s="12" t="s">
         <v>37</v>
       </c>
@@ -70558,7 +70558,7 @@
       <c r="AE532" s="19"/>
       <c r="AF532" s="20"/>
     </row>
-    <row r="533" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A533" s="12" t="s">
         <v>37</v>
       </c>
@@ -70712,7 +70712,7 @@
       <c r="AE534" s="19"/>
       <c r="AF534" s="20"/>
     </row>
-    <row r="535" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A535" s="12" t="s">
         <v>37</v>
       </c>
@@ -70862,7 +70862,7 @@
       <c r="AE536" s="19"/>
       <c r="AF536" s="20"/>
     </row>
-    <row r="537" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A537" s="12" t="s">
         <v>37</v>
       </c>
@@ -70936,7 +70936,7 @@
       <c r="AE537" s="19"/>
       <c r="AF537" s="20"/>
     </row>
-    <row r="538" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A538" s="12" t="s">
         <v>37</v>
       </c>
@@ -71012,7 +71012,7 @@
       <c r="AE538" s="19"/>
       <c r="AF538" s="20"/>
     </row>
-    <row r="539" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A539" s="12" t="s">
         <v>37</v>
       </c>
@@ -71088,7 +71088,7 @@
       <c r="AE539" s="19"/>
       <c r="AF539" s="20"/>
     </row>
-    <row r="540" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A540" s="12" t="s">
         <v>37</v>
       </c>
@@ -71318,7 +71318,7 @@
       <c r="AE542" s="19"/>
       <c r="AF542" s="20"/>
     </row>
-    <row r="543" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A543" s="12" t="s">
         <v>37</v>
       </c>
@@ -71392,7 +71392,7 @@
       <c r="AE543" s="19"/>
       <c r="AF543" s="20"/>
     </row>
-    <row r="544" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A544" s="12" t="s">
         <v>37</v>
       </c>
@@ -71620,7 +71620,7 @@
       <c r="AE546" s="19"/>
       <c r="AF546" s="20"/>
     </row>
-    <row r="547" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A547" s="12" t="s">
         <v>37</v>
       </c>
@@ -71776,7 +71776,7 @@
       <c r="AE548" s="19"/>
       <c r="AF548" s="20"/>
     </row>
-    <row r="549" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A549" s="12" t="s">
         <v>37</v>
       </c>
@@ -72006,7 +72006,7 @@
       <c r="AE551" s="19"/>
       <c r="AF551" s="20"/>
     </row>
-    <row r="552" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A552" s="12" t="s">
         <v>37</v>
       </c>
@@ -72080,7 +72080,7 @@
       <c r="AE552" s="19"/>
       <c r="AF552" s="20"/>
     </row>
-    <row r="553" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A553" s="12" t="s">
         <v>37</v>
       </c>
@@ -72154,7 +72154,7 @@
       <c r="AE553" s="19"/>
       <c r="AF553" s="20"/>
     </row>
-    <row r="554" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A554" s="12" t="s">
         <v>37</v>
       </c>
@@ -72228,7 +72228,7 @@
       <c r="AE554" s="19"/>
       <c r="AF554" s="20"/>
     </row>
-    <row r="555" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A555" s="12" t="s">
         <v>37</v>
       </c>
@@ -72382,7 +72382,7 @@
       <c r="AE556" s="19"/>
       <c r="AF556" s="20"/>
     </row>
-    <row r="557" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A557" s="12" t="s">
         <v>37</v>
       </c>
@@ -72456,7 +72456,7 @@
       <c r="AE557" s="19"/>
       <c r="AF557" s="20"/>
     </row>
-    <row r="558" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A558" s="12" t="s">
         <v>37</v>
       </c>
@@ -72530,7 +72530,7 @@
       <c r="AE558" s="19"/>
       <c r="AF558" s="20"/>
     </row>
-    <row r="559" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A559" s="12" t="s">
         <v>37</v>
       </c>
@@ -72604,7 +72604,7 @@
       <c r="AE559" s="19"/>
       <c r="AF559" s="20"/>
     </row>
-    <row r="560" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A560" s="12" t="s">
         <v>37</v>
       </c>
@@ -72680,7 +72680,7 @@
       <c r="AE560" s="19"/>
       <c r="AF560" s="20"/>
     </row>
-    <row r="561" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A561" s="12" t="s">
         <v>37</v>
       </c>
@@ -72756,7 +72756,7 @@
       <c r="AE561" s="19"/>
       <c r="AF561" s="20"/>
     </row>
-    <row r="562" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A562" s="12" t="s">
         <v>37</v>
       </c>
@@ -72830,7 +72830,7 @@
       <c r="AE562" s="19"/>
       <c r="AF562" s="20"/>
     </row>
-    <row r="563" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A563" s="12" t="s">
         <v>37</v>
       </c>
@@ -72982,7 +72982,7 @@
       <c r="AE564" s="19"/>
       <c r="AF564" s="20"/>
     </row>
-    <row r="565" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A565" s="12" t="s">
         <v>37</v>
       </c>
@@ -73132,7 +73132,7 @@
       <c r="AE566" s="19"/>
       <c r="AF566" s="20"/>
     </row>
-    <row r="567" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A567" s="12" t="s">
         <v>37</v>
       </c>
@@ -73206,7 +73206,7 @@
       <c r="AE567" s="19"/>
       <c r="AF567" s="20"/>
     </row>
-    <row r="568" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A568" s="12" t="s">
         <v>37</v>
       </c>
@@ -73280,7 +73280,7 @@
       <c r="AE568" s="19"/>
       <c r="AF568" s="20"/>
     </row>
-    <row r="569" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A569" s="12" t="s">
         <v>37</v>
       </c>
@@ -73434,7 +73434,7 @@
       <c r="AE570" s="19"/>
       <c r="AF570" s="20"/>
     </row>
-    <row r="571" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A571" s="12" t="s">
         <v>37</v>
       </c>
@@ -73508,7 +73508,7 @@
       <c r="AE571" s="19"/>
       <c r="AF571" s="20"/>
     </row>
-    <row r="572" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A572" s="12" t="s">
         <v>37</v>
       </c>
@@ -73660,7 +73660,7 @@
       <c r="AE573" s="19"/>
       <c r="AF573" s="20"/>
     </row>
-    <row r="574" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A574" s="12" t="s">
         <v>37</v>
       </c>
@@ -73810,7 +73810,7 @@
       <c r="AE575" s="19"/>
       <c r="AF575" s="20"/>
     </row>
-    <row r="576" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A576" s="12" t="s">
         <v>37</v>
       </c>
@@ -73884,7 +73884,7 @@
       <c r="AE576" s="19"/>
       <c r="AF576" s="20"/>
     </row>
-    <row r="577" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A577" s="12" t="s">
         <v>37</v>
       </c>
@@ -74036,7 +74036,7 @@
       <c r="AE578" s="19"/>
       <c r="AF578" s="20"/>
     </row>
-    <row r="579" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A579" s="12" t="s">
         <v>37</v>
       </c>
@@ -74110,7 +74110,7 @@
       <c r="AE579" s="19"/>
       <c r="AF579" s="20"/>
     </row>
-    <row r="580" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A580" s="12" t="s">
         <v>37</v>
       </c>
@@ -74184,7 +74184,7 @@
       <c r="AE580" s="19"/>
       <c r="AF580" s="20"/>
     </row>
-    <row r="581" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A581" s="12" t="s">
         <v>37</v>
       </c>
@@ -74258,7 +74258,7 @@
       <c r="AE581" s="19"/>
       <c r="AF581" s="20"/>
     </row>
-    <row r="582" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A582" s="12" t="s">
         <v>37</v>
       </c>
@@ -74564,7 +74564,7 @@
       <c r="AE585" s="19"/>
       <c r="AF585" s="20"/>
     </row>
-    <row r="586" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A586" s="12" t="s">
         <v>37</v>
       </c>
@@ -74638,7 +74638,7 @@
       <c r="AE586" s="19"/>
       <c r="AF586" s="20"/>
     </row>
-    <row r="587" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A587" s="12" t="s">
         <v>37</v>
       </c>
@@ -74712,7 +74712,7 @@
       <c r="AE587" s="19"/>
       <c r="AF587" s="20"/>
     </row>
-    <row r="588" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A588" s="12" t="s">
         <v>37</v>
       </c>
@@ -74786,7 +74786,7 @@
       <c r="AE588" s="19"/>
       <c r="AF588" s="20"/>
     </row>
-    <row r="589" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A589" s="12" t="s">
         <v>37</v>
       </c>
@@ -74936,7 +74936,7 @@
       <c r="AE590" s="19"/>
       <c r="AF590" s="20"/>
     </row>
-    <row r="591" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A591" s="12" t="s">
         <v>37</v>
       </c>
@@ -75010,7 +75010,7 @@
       <c r="AE591" s="19"/>
       <c r="AF591" s="20"/>
     </row>
-    <row r="592" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A592" s="12" t="s">
         <v>37</v>
       </c>
@@ -75084,7 +75084,7 @@
       <c r="AE592" s="19"/>
       <c r="AF592" s="20"/>
     </row>
-    <row r="593" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A593" s="12" t="s">
         <v>37</v>
       </c>
@@ -75158,7 +75158,7 @@
       <c r="AE593" s="19"/>
       <c r="AF593" s="20"/>
     </row>
-    <row r="594" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A594" s="12" t="s">
         <v>37</v>
       </c>
@@ -75460,7 +75460,7 @@
       <c r="AE597" s="19"/>
       <c r="AF597" s="20"/>
     </row>
-    <row r="598" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A598" s="12" t="s">
         <v>37</v>
       </c>
@@ -75610,7 +75610,7 @@
       <c r="AE599" s="19"/>
       <c r="AF599" s="20"/>
     </row>
-    <row r="600" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A600" s="12" t="s">
         <v>37</v>
       </c>
@@ -75686,7 +75686,7 @@
       <c r="AE600" s="19"/>
       <c r="AF600" s="20"/>
     </row>
-    <row r="601" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A601" s="12" t="s">
         <v>37</v>
       </c>
@@ -75760,7 +75760,7 @@
       <c r="AE601" s="19"/>
       <c r="AF601" s="20"/>
     </row>
-    <row r="602" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A602" s="12" t="s">
         <v>37</v>
       </c>
@@ -75834,7 +75834,7 @@
       <c r="AE602" s="19"/>
       <c r="AF602" s="20"/>
     </row>
-    <row r="603" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A603" s="12" t="s">
         <v>37</v>
       </c>
@@ -75908,7 +75908,7 @@
       <c r="AE603" s="19"/>
       <c r="AF603" s="20"/>
     </row>
-    <row r="604" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A604" s="12" t="s">
         <v>37</v>
       </c>
@@ -76058,7 +76058,7 @@
       <c r="AE605" s="19"/>
       <c r="AF605" s="20"/>
     </row>
-    <row r="606" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A606" s="12" t="s">
         <v>37</v>
       </c>
@@ -76134,7 +76134,7 @@
       <c r="AE606" s="19"/>
       <c r="AF606" s="20"/>
     </row>
-    <row r="607" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A607" s="12" t="s">
         <v>37</v>
       </c>
@@ -76286,7 +76286,7 @@
       <c r="AE608" s="19"/>
       <c r="AF608" s="20"/>
     </row>
-    <row r="609" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A609" s="12" t="s">
         <v>37</v>
       </c>
@@ -76360,7 +76360,7 @@
       <c r="AE609" s="19"/>
       <c r="AF609" s="20"/>
     </row>
-    <row r="610" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A610" s="12" t="s">
         <v>37</v>
       </c>
@@ -76668,7 +76668,7 @@
       <c r="AE613" s="19"/>
       <c r="AF613" s="20"/>
     </row>
-    <row r="614" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A614" s="12" t="s">
         <v>37</v>
       </c>
@@ -76742,7 +76742,7 @@
       <c r="AE614" s="19"/>
       <c r="AF614" s="20"/>
     </row>
-    <row r="615" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A615" s="12" t="s">
         <v>37</v>
       </c>
@@ -76968,7 +76968,7 @@
       <c r="AE617" s="19"/>
       <c r="AF617" s="20"/>
     </row>
-    <row r="618" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A618" s="12" t="s">
         <v>37</v>
       </c>
@@ -77044,7 +77044,7 @@
       <c r="AE618" s="19"/>
       <c r="AF618" s="20"/>
     </row>
-    <row r="619" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A619" s="12" t="s">
         <v>37</v>
       </c>
@@ -77118,7 +77118,7 @@
       <c r="AE619" s="19"/>
       <c r="AF619" s="20"/>
     </row>
-    <row r="620" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A620" s="12" t="s">
         <v>37</v>
       </c>
@@ -77192,7 +77192,7 @@
       <c r="AE620" s="19"/>
       <c r="AF620" s="20"/>
     </row>
-    <row r="621" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A621" s="12" t="s">
         <v>37</v>
       </c>
@@ -77266,7 +77266,7 @@
       <c r="AE621" s="19"/>
       <c r="AF621" s="20"/>
     </row>
-    <row r="622" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A622" s="12" t="s">
         <v>37</v>
       </c>
@@ -77342,7 +77342,7 @@
       <c r="AE622" s="19"/>
       <c r="AF622" s="20"/>
     </row>
-    <row r="623" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A623" s="12" t="s">
         <v>37</v>
       </c>
@@ -77494,7 +77494,7 @@
       <c r="AE624" s="19"/>
       <c r="AF624" s="20"/>
     </row>
-    <row r="625" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A625" s="12" t="s">
         <v>37</v>
       </c>
@@ -77568,7 +77568,7 @@
       <c r="AE625" s="19"/>
       <c r="AF625" s="20"/>
     </row>
-    <row r="626" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A626" s="12" t="s">
         <v>37</v>
       </c>
@@ -77720,7 +77720,7 @@
       <c r="AE627" s="19"/>
       <c r="AF627" s="20"/>
     </row>
-    <row r="628" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A628" s="12" t="s">
         <v>37</v>
       </c>
@@ -77872,7 +77872,7 @@
       <c r="AE629" s="19"/>
       <c r="AF629" s="20"/>
     </row>
-    <row r="630" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A630" s="12" t="s">
         <v>37</v>
       </c>
@@ -77946,7 +77946,7 @@
       <c r="AE630" s="19"/>
       <c r="AF630" s="20"/>
     </row>
-    <row r="631" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A631" s="12" t="s">
         <v>37</v>
       </c>
@@ -78020,7 +78020,7 @@
       <c r="AE631" s="19"/>
       <c r="AF631" s="20"/>
     </row>
-    <row r="632" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A632" s="12" t="s">
         <v>37</v>
       </c>
@@ -78094,7 +78094,7 @@
       <c r="AE632" s="19"/>
       <c r="AF632" s="20"/>
     </row>
-    <row r="633" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A633" s="12" t="s">
         <v>37</v>
       </c>
